--- a/input_analysis/_data/passengerprognose.xlsx
+++ b/input_analysis/_data/passengerprognose.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="570" windowWidth="25440" windowHeight="11700"/>
+    <workbookView xWindow="636" yWindow="576" windowWidth="23256" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="prognoseUHL" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>P+R Uithof -&gt; Utrecht Centraal</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Entry passengers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NB: usage of P+R not in forecast </t>
   </si>
   <si>
     <t>total in both directions</t>
@@ -186,7 +183,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -199,9 +196,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +236,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -311,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,32 +484,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="234" width="9.140625" style="1"/>
-    <col min="16363" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="234" width="9.109375" style="1"/>
+    <col min="16363" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:234 16363:16369" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:234 16363:16369" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:234 16363:16369" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:234 16363:16369" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
@@ -523,7 +520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:234 16363:16369" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:234 16363:16369" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -786,7 +783,7 @@
       <c r="XEN6" s="1"/>
       <c r="XEO6" s="1"/>
     </row>
-    <row r="7" spans="1:234 16363:16369" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:234 16363:16369" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1028,7 @@
       <c r="XEN7" s="1"/>
       <c r="XEO7" s="1"/>
     </row>
-    <row r="8" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1062,9 +1059,7 @@
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1296,7 +1291,7 @@
       <c r="XEN8" s="1"/>
       <c r="XEO8" s="1"/>
     </row>
-    <row r="9" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1559,7 +1554,7 @@
       <c r="XEN9" s="1"/>
       <c r="XEO9" s="1"/>
     </row>
-    <row r="10" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1590,8 +1585,14 @@
       <c r="J10" s="7">
         <v>4.8727772014665993E-2</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="8">
+        <f>SUM(C8:C10)-SUM(F8:F10)-SUM(I8:I10)</f>
+        <v>1839.7309546342894</v>
+      </c>
+      <c r="L10" s="8">
+        <f>SUM(D8:D10)-SUM(G8:G10)-SUM(J8:J10)</f>
+        <v>0.10441665431714139</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1822,7 +1823,7 @@
       <c r="XEN10" s="1"/>
       <c r="XEO10" s="1"/>
     </row>
-    <row r="11" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1853,8 +1854,14 @@
       <c r="J11" s="7">
         <v>1.3922220575618854E-2</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="K11" s="8">
+        <f>C11-F11-I11</f>
+        <v>5682.6745390120741</v>
+      </c>
+      <c r="L11" s="8">
+        <f>D11-G11-J11</f>
+        <v>0.13226109546837911</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2085,7 +2092,7 @@
       <c r="XEN11" s="1"/>
       <c r="XEO11" s="1"/>
     </row>
-    <row r="12" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -2116,8 +2123,14 @@
       <c r="J12" s="7">
         <v>3.2508385044070023</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="K12" s="8">
+        <f t="shared" ref="K12:L27" si="0">C12-F12-I12</f>
+        <v>4289.9930481711935</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="0"/>
+        <v>129.95000685282636</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2348,7 +2361,7 @@
       <c r="XEN12" s="1"/>
       <c r="XEO12" s="1"/>
     </row>
-    <row r="13" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -2379,8 +2392,14 @@
       <c r="J13" s="7">
         <v>5.429666024491353</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>296.65467602528656</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="0"/>
+        <v>24.322119345606136</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2611,7 +2630,7 @@
       <c r="XEN13" s="1"/>
       <c r="XEO13" s="1"/>
     </row>
-    <row r="14" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -2642,8 +2661,14 @@
       <c r="J14" s="7">
         <v>67.474042019736771</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>261.89785235825394</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="0"/>
+        <v>170.59592982334561</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2874,7 +2899,7 @@
       <c r="XEN14" s="1"/>
       <c r="XEO14" s="1"/>
     </row>
-    <row r="15" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:234 16363:16369" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -2905,8 +2930,14 @@
       <c r="J15" s="7">
         <v>231.16455043757543</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="K15" s="8">
+        <f t="shared" si="0"/>
+        <v>823.01206932770856</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="0"/>
+        <v>254.03179773302935</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -3137,7 +3168,7 @@
       <c r="XEN15" s="1"/>
       <c r="XEO15" s="1"/>
     </row>
-    <row r="16" spans="1:234 16363:16369" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:234 16363:16369" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -3168,8 +3199,14 @@
       <c r="J16" s="7">
         <v>7740.7964067058092</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <f>D16-G16-J16</f>
+        <v>12614.812685803638</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -3400,9 +3437,9 @@
       <c r="XEN16" s="1"/>
       <c r="XEO16" s="1"/>
     </row>
-    <row r="17" spans="1:234 16363:16369" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:234 16363:16369" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10">
@@ -3431,7 +3468,7 @@
         <f>SUM(J8:J16)</f>
         <v>8048.1990370154736</v>
       </c>
-      <c r="K17" s="11"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -3663,7 +3700,7 @@
       <c r="XEN17" s="11"/>
       <c r="XEO17" s="11"/>
     </row>
-    <row r="18" spans="1:234 16363:16369" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:234 16363:16369" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -3676,7 +3713,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3939,8 +3976,14 @@
       <c r="J19" s="7">
         <v>0</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="K19" s="8">
+        <f>C19-F19-I19</f>
+        <v>9738.3566148956015</v>
+      </c>
+      <c r="L19" s="8">
+        <f>D19-G19-J19</f>
+        <v>0</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -4202,8 +4245,14 @@
       <c r="J20" s="7">
         <v>295.49913171751018</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="K20" s="8">
+        <f>C20-F20-I20</f>
+        <v>1059.1955802827947</v>
+      </c>
+      <c r="L20" s="8">
+        <f>D20-G20-J20</f>
+        <v>1144.7615479405483</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -4465,8 +4514,14 @@
       <c r="J21" s="7">
         <v>228.18519523439301</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="K21" s="8">
+        <f t="shared" ref="K19:L21" si="1">C21-F21-I21</f>
+        <v>153.33237630957822</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="1"/>
+        <v>755.25958289645951</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -4728,8 +4783,14 @@
       <c r="J22" s="7">
         <v>292.77037648468888</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="K22" s="8">
+        <f>C22-F22-I22</f>
+        <v>17.924858991109268</v>
+      </c>
+      <c r="L22" s="8">
+        <f>D22-G22-J22</f>
+        <v>514.71841690120459</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -4991,8 +5052,14 @@
       <c r="J23" s="7">
         <v>718.28216504761565</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="K23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.43854994813199433</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="0"/>
+        <v>4403.4313014213376</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -5254,8 +5321,14 @@
       <c r="J24" s="7">
         <v>500.81011854616145</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="K24" s="8">
+        <f>C24-F24-I24</f>
+        <v>0.59169437446380169</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="0"/>
+        <v>2757.4141238762063</v>
+      </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -5517,8 +5590,8 @@
       <c r="J25" s="7">
         <v>321.72163417168827</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -5780,8 +5853,8 @@
       <c r="J26" s="7">
         <v>146.8794270727789</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -6012,7 +6085,7 @@
       <c r="XEN26" s="1"/>
       <c r="XEO26" s="1"/>
     </row>
-    <row r="27" spans="1:234 16363:16369" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:234 16363:16369" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
@@ -6043,10 +6116,14 @@
       <c r="J27" s="7">
         <v>0.69611102878094266</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="1"/>
+      <c r="K27" s="8">
+        <f>SUM(C25:C27)-SUM(F25:F27)-SUM(I25:I27)</f>
+        <v>0.52208327158570622</v>
+      </c>
+      <c r="L27" s="8">
+        <f>SUM(D25:D27)-SUM(G25:G27)-SUM(J25:J27)</f>
+        <v>1394.1224406704569</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -6277,9 +6354,9 @@
       <c r="XEN27" s="1"/>
       <c r="XEO27" s="1"/>
     </row>
-    <row r="28" spans="1:234 16363:16369" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:234 16363:16369" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10">
@@ -6308,7 +6385,10 @@
         <f>SUM(J19:J27)</f>
         <v>2504.8441593036173</v>
       </c>
-      <c r="K28" s="11"/>
+      <c r="K28" s="8">
+        <f t="shared" ref="K28" si="2">C28-F28-I28</f>
+        <v>10970.361758073268</v>
+      </c>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -6540,9 +6620,9 @@
       <c r="XEN28" s="11"/>
       <c r="XEO28" s="11"/>
     </row>
-    <row r="30" spans="1:234 16363:16369" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:234 16363:16369" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="8">
         <f>C17+C28</f>
